--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H2">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>190.2070298840502</v>
+        <v>249.9318591689594</v>
       </c>
       <c r="R2">
-        <v>190.2070298840502</v>
+        <v>2249.386732520635</v>
       </c>
       <c r="S2">
-        <v>7.975649880227536E-05</v>
+        <v>8.846553596989779E-05</v>
       </c>
       <c r="T2">
-        <v>7.975649880227536E-05</v>
+        <v>8.84655359698978E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H3">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>6660.55671628782</v>
+        <v>6763.864511255357</v>
       </c>
       <c r="R3">
-        <v>6660.55671628782</v>
+        <v>60874.7806012982</v>
       </c>
       <c r="S3">
-        <v>0.002792865668997244</v>
+        <v>0.002394128148390499</v>
       </c>
       <c r="T3">
-        <v>0.002792865668997244</v>
+        <v>0.0023941281483905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H4">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>9109.151943325962</v>
+        <v>9231.828997048184</v>
       </c>
       <c r="R4">
-        <v>9109.151943325962</v>
+        <v>83086.46097343364</v>
       </c>
       <c r="S4">
-        <v>0.003819596292000895</v>
+        <v>0.003267685452034369</v>
       </c>
       <c r="T4">
-        <v>0.003819596292000895</v>
+        <v>0.003267685452034369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H5">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>6655.517419155592</v>
+        <v>6926.888114642377</v>
       </c>
       <c r="R5">
-        <v>6655.517419155592</v>
+        <v>62341.99303178139</v>
       </c>
       <c r="S5">
-        <v>0.002790752620410471</v>
+        <v>0.002451831758075678</v>
       </c>
       <c r="T5">
-        <v>0.002790752620410471</v>
+        <v>0.002451831758075678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H6">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>566.6132777826582</v>
+        <v>647.0112912766511</v>
       </c>
       <c r="R6">
-        <v>566.6132777826582</v>
+        <v>5823.10162148986</v>
       </c>
       <c r="S6">
-        <v>0.0002375889641848374</v>
+        <v>0.00022901522379614</v>
       </c>
       <c r="T6">
-        <v>0.0002375889641848374</v>
+        <v>0.0002290152237961401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H7">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>252.1369936359898</v>
+        <v>343.3014295258648</v>
       </c>
       <c r="R7">
-        <v>252.1369936359898</v>
+        <v>3089.712865732783</v>
       </c>
       <c r="S7">
-        <v>0.0001057246088285847</v>
+        <v>0.0001215145002450716</v>
       </c>
       <c r="T7">
-        <v>0.0001057246088285847</v>
+        <v>0.0001215145002450716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H8">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>8829.18337671617</v>
+        <v>9290.709730060766</v>
       </c>
       <c r="R8">
-        <v>8829.18337671617</v>
+        <v>83616.3875705469</v>
       </c>
       <c r="S8">
-        <v>0.003702201510845326</v>
+        <v>0.003288526795037132</v>
       </c>
       <c r="T8">
-        <v>0.003702201510845326</v>
+        <v>0.003288526795037133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H9">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>12075.02260544071</v>
+        <v>12680.65664922876</v>
       </c>
       <c r="R9">
-        <v>12075.02260544071</v>
+        <v>114125.9098430588</v>
       </c>
       <c r="S9">
-        <v>0.005063227823679074</v>
+        <v>0.004488427728479018</v>
       </c>
       <c r="T9">
-        <v>0.005063227823679074</v>
+        <v>0.004488427728479018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H10">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>8822.503322725877</v>
+        <v>9514.635708426682</v>
       </c>
       <c r="R10">
-        <v>8822.503322725877</v>
+        <v>85631.72137584013</v>
       </c>
       <c r="S10">
-        <v>0.003699400469693479</v>
+        <v>0.003367787325325641</v>
       </c>
       <c r="T10">
-        <v>0.003699400469693479</v>
+        <v>0.003367787325325641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H11">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>751.0982559448152</v>
+        <v>888.7218378369765</v>
       </c>
       <c r="R11">
-        <v>751.0982559448152</v>
+        <v>7998.496540532788</v>
       </c>
       <c r="S11">
-        <v>0.0003149461257408399</v>
+        <v>0.0003145707553003517</v>
       </c>
       <c r="T11">
-        <v>0.0003149461257408399</v>
+        <v>0.0003145707553003518</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H12">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>10422.3455326334</v>
+        <v>13539.69592263347</v>
       </c>
       <c r="R12">
-        <v>10422.3455326334</v>
+        <v>121857.2633037012</v>
       </c>
       <c r="S12">
-        <v>0.004370236943908454</v>
+        <v>0.004792492084234338</v>
       </c>
       <c r="T12">
-        <v>0.004370236943908454</v>
+        <v>0.004792492084234339</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H13">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>364963.5009766525</v>
+        <v>366422.5483249769</v>
       </c>
       <c r="R13">
-        <v>364963.5009766525</v>
+        <v>3297802.934924792</v>
       </c>
       <c r="S13">
-        <v>0.153034359698813</v>
+        <v>0.1296984195484701</v>
       </c>
       <c r="T13">
-        <v>0.153034359698813</v>
+        <v>0.1296984195484702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H14">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>499133.6498996731</v>
+        <v>500120.944346205</v>
       </c>
       <c r="R14">
-        <v>499133.6498996731</v>
+        <v>4501088.499115844</v>
       </c>
       <c r="S14">
-        <v>0.2092938014681486</v>
+        <v>0.1770221193027212</v>
       </c>
       <c r="T14">
-        <v>0.2092938014681486</v>
+        <v>0.1770221193027212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H15">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>364687.3739797392</v>
+        <v>375254.1155585887</v>
       </c>
       <c r="R15">
-        <v>364687.3739797392</v>
+        <v>3377287.040027298</v>
       </c>
       <c r="S15">
-        <v>0.1529185757421842</v>
+        <v>0.1328244288990727</v>
       </c>
       <c r="T15">
-        <v>0.1529185757421842</v>
+        <v>0.1328244288990727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H16">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>31047.42957202369</v>
+        <v>35050.89815890222</v>
       </c>
       <c r="R16">
-        <v>31047.42957202369</v>
+        <v>315458.08343012</v>
       </c>
       <c r="S16">
-        <v>0.01301862649863332</v>
+        <v>0.01240656754270524</v>
       </c>
       <c r="T16">
-        <v>0.01301862649863332</v>
+        <v>0.01240656754270524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H17">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>8672.681087876364</v>
+        <v>15467.52405678286</v>
       </c>
       <c r="R17">
-        <v>8672.681087876364</v>
+        <v>139207.7165110457</v>
       </c>
       <c r="S17">
-        <v>0.003636577886839346</v>
+        <v>0.005474863470229114</v>
       </c>
       <c r="T17">
-        <v>0.003636577886839346</v>
+        <v>0.005474863470229115</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H18">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>303694.7914243266</v>
+        <v>418595.0418347286</v>
       </c>
       <c r="R18">
-        <v>303694.7914243266</v>
+        <v>3767355.376512557</v>
       </c>
       <c r="S18">
-        <v>0.1273435229142531</v>
+        <v>0.1481653233540632</v>
       </c>
       <c r="T18">
-        <v>0.1273435229142531</v>
+        <v>0.1481653233540632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H19">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>415340.9568176004</v>
+        <v>571329.8719688904</v>
       </c>
       <c r="R19">
-        <v>415340.9568176004</v>
+        <v>5141968.847720014</v>
       </c>
       <c r="S19">
-        <v>0.1741583397057011</v>
+        <v>0.2022271330569857</v>
       </c>
       <c r="T19">
-        <v>0.1741583397057011</v>
+        <v>0.2022271330569858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H20">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>303465.019596432</v>
+        <v>428684.077764748</v>
       </c>
       <c r="R20">
-        <v>303465.019596432</v>
+        <v>3858156.699882731</v>
       </c>
       <c r="S20">
-        <v>0.1272471763358567</v>
+        <v>0.1517364245891616</v>
       </c>
       <c r="T20">
-        <v>0.1272471763358567</v>
+        <v>0.1517364245891616</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H21">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>25835.30304511298</v>
+        <v>40041.5647133099</v>
       </c>
       <c r="R21">
-        <v>25835.30304511298</v>
+        <v>360374.082419789</v>
       </c>
       <c r="S21">
-        <v>0.0108331081013676</v>
+        <v>0.01417305698927176</v>
       </c>
       <c r="T21">
-        <v>0.0108331081013676</v>
+        <v>0.01417305698927177</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H22">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>30.12639475572249</v>
+        <v>43.49413144983322</v>
       </c>
       <c r="R22">
-        <v>30.12639475572249</v>
+        <v>391.447183048499</v>
       </c>
       <c r="S22">
-        <v>1.263242356876285E-05</v>
+        <v>1.53951227468505E-05</v>
       </c>
       <c r="T22">
-        <v>1.263242356876285E-05</v>
+        <v>1.53951227468505E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H23">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>1054.948184880899</v>
+        <v>1177.074475977569</v>
       </c>
       <c r="R23">
-        <v>1054.948184880899</v>
+        <v>10593.67028379812</v>
       </c>
       <c r="S23">
-        <v>0.0004423547000087585</v>
+        <v>0.0004166356571750529</v>
       </c>
       <c r="T23">
-        <v>0.0004423547000087585</v>
+        <v>0.000416635657175053</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H24">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>1442.774788617351</v>
+        <v>1606.559424857286</v>
       </c>
       <c r="R24">
-        <v>1442.774788617351</v>
+        <v>14459.03482371557</v>
       </c>
       <c r="S24">
-        <v>0.0006049758821766981</v>
+        <v>0.000568655556998881</v>
       </c>
       <c r="T24">
-        <v>0.0006049758821766981</v>
+        <v>0.0005686555569988811</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H25">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>1054.150023767772</v>
+        <v>1205.444488743117</v>
       </c>
       <c r="R25">
-        <v>1054.150023767772</v>
+        <v>10849.00039868805</v>
       </c>
       <c r="S25">
-        <v>0.0004420200197611254</v>
+        <v>0.0004266774677434302</v>
       </c>
       <c r="T25">
-        <v>0.0004420200197611254</v>
+        <v>0.0004266774677434302</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H26">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>89.74439741117904</v>
+        <v>112.5954660037516</v>
       </c>
       <c r="R26">
-        <v>89.74439741117904</v>
+        <v>1013.359194033764</v>
       </c>
       <c r="S26">
-        <v>3.763109559619823E-05</v>
+        <v>3.98541357669354E-05</v>
       </c>
       <c r="T26">
-        <v>3.763109559619823E-05</v>
+        <v>3.98541357669354E-05</v>
       </c>
     </row>
   </sheetData>
